--- a/data/00981A_Holdings_20260102.xlsx
+++ b/data/00981A_Holdings_20260102.xlsx
@@ -521,10 +521,10 @@
         <v>5033960000</v>
       </c>
       <c r="G4" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47550000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -553,10 +553,10 @@
         <v>3302430000</v>
       </c>
       <c r="G5" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>63600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -585,10 +585,10 @@
         <v>3180800000</v>
       </c>
       <c r="G6" t="n">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>76160000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -617,10 +617,10 @@
         <v>3151530000</v>
       </c>
       <c r="G7" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>43650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -649,10 +649,10 @@
         <v>2721665000</v>
       </c>
       <c r="G8" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>22900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -681,10 +681,10 @@
         <v>2622154000</v>
       </c>
       <c r="G9" t="n">
-        <v>-159000</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-102237000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -713,10 +713,10 @@
         <v>2588990000</v>
       </c>
       <c r="G10" t="n">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>69650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -745,10 +745,10 @@
         <v>2492780000</v>
       </c>
       <c r="G11" t="n">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>58760000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -777,10 +777,10 @@
         <v>2383343200</v>
       </c>
       <c r="G12" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>45750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -809,10 +809,10 @@
         <v>2348275500</v>
       </c>
       <c r="G13" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24075000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -841,10 +841,10 @@
         <v>1965040000</v>
       </c>
       <c r="G14" t="n">
-        <v>370000</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>85840000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -873,10 +873,10 @@
         <v>1963220000</v>
       </c>
       <c r="G15" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>38850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         <v>1819860000</v>
       </c>
       <c r="G16" t="n">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>102900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -937,10 +937,10 @@
         <v>1621210000</v>
       </c>
       <c r="G17" t="n">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>138130000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -969,10 +969,10 @@
         <v>1567825000</v>
       </c>
       <c r="G18" t="n">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>173400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1001,10 +1001,10 @@
         <v>1559560000</v>
       </c>
       <c r="G19" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1033,10 +1033,10 @@
         <v>1429092000</v>
       </c>
       <c r="G20" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>19080000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1065,10 +1065,10 @@
         <v>1097820000</v>
       </c>
       <c r="G21" t="n">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>21400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1097,10 +1097,10 @@
         <v>1030210000</v>
       </c>
       <c r="G22" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>58040000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1161,10 +1161,10 @@
         <v>773760000</v>
       </c>
       <c r="G24" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>19200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1225,10 +1225,10 @@
         <v>447930992.7749634</v>
       </c>
       <c r="G26" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4729999.923706055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1257,10 +1257,10 @@
         <v>390906000</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>762000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1289,10 +1289,10 @@
         <v>346749000</v>
       </c>
       <c r="G28" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5525000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1321,10 +1321,10 @@
         <v>327635000</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1295000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1353,10 +1353,10 @@
         <v>303411000</v>
       </c>
       <c r="G30" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>8550000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1385,10 +1385,10 @@
         <v>265550000</v>
       </c>
       <c r="G31" t="n">
-        <v>469000</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>264985000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1417,10 +1417,10 @@
         <v>254375920</v>
       </c>
       <c r="G32" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1449,10 +1449,10 @@
         <v>244329500</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>140500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1481,10 +1481,10 @@
         <v>187530000</v>
       </c>
       <c r="G34" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4935000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1513,10 +1513,10 @@
         <v>178533000</v>
       </c>
       <c r="G35" t="n">
-        <v>-137000</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-34113000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1545,10 +1545,10 @@
         <v>157870500</v>
       </c>
       <c r="G36" t="n">
-        <v>-642000</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-39483000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1577,10 +1577,10 @@
         <v>153877495.1934814</v>
       </c>
       <c r="G37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97699.99694824219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         <v>147645000</v>
       </c>
       <c r="G38" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8685000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1641,10 +1641,10 @@
         <v>85250000</v>
       </c>
       <c r="G39" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-155000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1673,10 +1673,10 @@
         <v>88423402.92358398</v>
       </c>
       <c r="G40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>92300.00305175781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1705,10 +1705,10 @@
         <v>81699000</v>
       </c>
       <c r="G41" t="n">
-        <v>338000</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>81458000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1737,10 +1737,10 @@
         <v>52486000</v>
       </c>
       <c r="G42" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1769,10 +1769,10 @@
         <v>29019000</v>
       </c>
       <c r="G43" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>28450000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1801,10 +1801,10 @@
         <v>7755000</v>
       </c>
       <c r="G44" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5170000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1865,10 +1865,10 @@
         <v>312500</v>
       </c>
       <c r="G46" t="n">
-        <v>-142000</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-44375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1897,10 +1897,10 @@
         <v>1110000</v>
       </c>
       <c r="G47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>555000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1929,10 +1929,10 @@
         <v>191600.0061035156</v>
       </c>
       <c r="G48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>95800.00305175781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1961,10 +1961,10 @@
         <v>216000</v>
       </c>
       <c r="G49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>108000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2025,10 +2025,10 @@
         <v>68540.9969329834</v>
       </c>
       <c r="G51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>34099.99847412109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2057,10 +2057,10 @@
         <v>678000</v>
       </c>
       <c r="G52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>339000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2089,10 +2089,10 @@
         <v>516000</v>
       </c>
       <c r="G53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>258000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
